--- a/myproject/public/files/upload.xlsx
+++ b/myproject/public/files/upload.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">test2222</t>
-  </si>
-  <si>
     <t xml:space="preserve">lan2@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">lan23232@hihi.com</t>
+    <t xml:space="preserve">saimail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lan23232ffsdfsda</t>
   </si>
 </sst>
 </file>
@@ -52,7 +52,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -74,7 +73,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +151,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,19 +168,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>123456</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>222222</v>
+      <c r="A3" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -192,7 +189,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="lan2@test.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="lan23232@hihi.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
